--- a/AGN_outlier_flux_W2.xlsx
+++ b/AGN_outlier_flux_W2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciara\Dropbox\University\University Work\Fourth Year\Project\New_project_repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36E3AD4-BB42-4740-9AE1-FA0A3D2BEA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B728F9D-CB52-444C-8F82-09ED76267CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3121F4BC-F440-4505-8CEF-6CECA9E42148}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="63">
   <si>
     <t>W2</t>
   </si>
@@ -135,6 +135,96 @@
   </si>
   <si>
     <t>142653.5+511907.1</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>121532.90+560919.0</t>
+  </si>
+  <si>
+    <t>115118.98+520927.3</t>
+  </si>
+  <si>
+    <t>113933.38+511550.7</t>
+  </si>
+  <si>
+    <t>142030.56+513909.1</t>
+  </si>
+  <si>
+    <t>162054.47+434307.5</t>
+  </si>
+  <si>
+    <t>113614.74+535157.2</t>
+  </si>
+  <si>
+    <t>123711.72+564414.6</t>
+  </si>
+  <si>
+    <t>141428.15+520347.2</t>
+  </si>
+  <si>
+    <t>092317.74+331948.7</t>
+  </si>
+  <si>
+    <t>160556.08+421201.8</t>
+  </si>
+  <si>
+    <t>120539.27+531640.4</t>
+  </si>
+  <si>
+    <t>130446.71+292022.3</t>
+  </si>
+  <si>
+    <t>155021.33+432712.6</t>
+  </si>
+  <si>
+    <t>161506.85+544612.3</t>
+  </si>
+  <si>
+    <t>142823.15+340445.8</t>
+  </si>
+  <si>
+    <t>013313.03+311507.3</t>
+  </si>
+  <si>
+    <t>164239.69+305545.9</t>
+  </si>
+  <si>
+    <t>160433.83+535446.8</t>
+  </si>
+  <si>
+    <t>122256.17+555533.3</t>
+  </si>
+  <si>
+    <t>160205.95+440714.2</t>
+  </si>
+  <si>
+    <t>113354.23+511800.9</t>
+  </si>
+  <si>
+    <t>142832.27+531022.0</t>
+  </si>
+  <si>
+    <t>142120.51+522737.3</t>
+  </si>
+  <si>
+    <t>155018.40+425153.1</t>
+  </si>
+  <si>
+    <t>162659.42+424450.0</t>
+  </si>
+  <si>
+    <t>162540.29+445036.6</t>
+  </si>
+  <si>
+    <t>083657.06+314325.5</t>
+  </si>
+  <si>
+    <t>164721.34+334013.2</t>
+  </si>
+  <si>
+    <t>160836.53+545121.6</t>
   </si>
 </sst>
 </file>
@@ -178,9 +268,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,15 +606,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18915A0-1BC0-465B-8231-84A68013F817}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -547,7 +639,7 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>11</v>
       </c>
     </row>
@@ -558,7 +650,7 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>7</v>
       </c>
     </row>
@@ -569,7 +661,7 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>22</v>
       </c>
     </row>
@@ -580,7 +672,7 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>9</v>
       </c>
     </row>
@@ -591,7 +683,7 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>5</v>
       </c>
     </row>
@@ -602,7 +694,7 @@
       <c r="B7" t="s">
         <v>0</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>4</v>
       </c>
     </row>
@@ -613,7 +705,7 @@
       <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>5</v>
       </c>
     </row>
@@ -624,7 +716,7 @@
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>11</v>
       </c>
     </row>
@@ -635,19 +727,19 @@
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>15</v>
+      <c r="C11" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -657,8 +749,8 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>13</v>
+      <c r="C12" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -668,264 +760,697 @@
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>15</v>
+      <c r="C13" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>18</v>
+      <c r="C14" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>25</v>
+      <c r="C15" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>13</v>
+      <c r="D32" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
-      <c r="C33">
-        <v>12</v>
+      <c r="C33" s="2">
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
-      <c r="C34">
-        <v>13</v>
+      <c r="C34" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
-      <c r="C35">
-        <v>21</v>
+      <c r="C35" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>57</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AGN_outlier_flux_W2.xlsx
+++ b/AGN_outlier_flux_W2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciara\Dropbox\University\University Work\Fourth Year\Project\New_project_repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B728F9D-CB52-444C-8F82-09ED76267CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94590525-1B6D-4649-B84B-CAB420ED6387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3121F4BC-F440-4505-8CEF-6CECA9E42148}"/>
   </bookViews>
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18915A0-1BC0-465B-8231-84A68013F817}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -797,114 +797,125 @@
         <v>25</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>24</v>
+      </c>
+    </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -915,65 +926,65 @@
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
         <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -984,29 +995,29 @@
         <v>0</v>
       </c>
       <c r="C34" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
         <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="2">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
         <v>0</v>
       </c>
       <c r="C36" s="2">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1017,29 +1028,29 @@
         <v>0</v>
       </c>
       <c r="C37" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
       <c r="C39" s="2">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1061,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="C41" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1072,40 +1083,40 @@
         <v>0</v>
       </c>
       <c r="C42" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
       <c r="C43" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
       <c r="C45" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1116,34 +1127,34 @@
         <v>0</v>
       </c>
       <c r="C46" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="2">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B49" t="s">
         <v>0</v>
@@ -1154,35 +1165,35 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
         <v>0</v>
       </c>
       <c r="C52" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1193,12 +1204,12 @@
         <v>0</v>
       </c>
       <c r="C53" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
         <v>0</v>
@@ -1209,35 +1220,35 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
         <v>0</v>
       </c>
       <c r="C55" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="2">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1248,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="C58" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1259,73 +1270,73 @@
         <v>0</v>
       </c>
       <c r="C59" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B60" t="s">
         <v>0</v>
       </c>
       <c r="C60" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
         <v>0</v>
       </c>
       <c r="C61" s="2">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
       <c r="C62" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
         <v>0</v>
       </c>
       <c r="C63" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
       <c r="C65" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1336,18 +1347,18 @@
         <v>0</v>
       </c>
       <c r="C66" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B67" t="s">
         <v>0</v>
       </c>
       <c r="C67" s="2">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1358,94 +1369,83 @@
         <v>0</v>
       </c>
       <c r="C68" s="2">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
       <c r="C69" s="2">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
       <c r="C70" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
       </c>
       <c r="C71" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B72" t="s">
         <v>0</v>
       </c>
       <c r="C72" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
       <c r="C73" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
       <c r="C74" s="2">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2">
         <v>24</v>
       </c>
     </row>
